--- a/tests/test_xls/sheet_accounts/test_foreach/test_foreach_account_classification/expected_result.xlsx
+++ b/tests/test_xls/sheet_accounts/test_foreach/test_foreach_account_classification/expected_result.xlsx
@@ -526,7 +526,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>43101</v>
+        <v>43104</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44926</v>
@@ -553,7 +553,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>43103</v>
+        <v>43101</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>44926</v>
@@ -672,7 +672,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>43101</v>
+        <v>43104</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44926</v>
@@ -699,7 +699,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>43103</v>
+        <v>43101</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>44926</v>
@@ -818,7 +818,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>43102</v>
+        <v>43101</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44926</v>
@@ -845,7 +845,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>43101</v>
+        <v>43102</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>44926</v>
@@ -964,7 +964,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>43102</v>
+        <v>43101</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44926</v>
@@ -991,7 +991,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>43101</v>
+        <v>43102</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>44926</v>
@@ -1110,7 +1110,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>43101</v>
+        <v>43104</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44926</v>
@@ -1137,7 +1137,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>43103</v>
+        <v>43101</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>44926</v>
